--- a/biology/Botanique/Parcs_et_jardins_de_Rennes/Parcs_et_jardins_de_Rennes.xlsx
+++ b/biology/Botanique/Parcs_et_jardins_de_Rennes/Parcs_et_jardins_de_Rennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parcs et jardins de Rennes sont les espaces verts de la commune de Rennesdans le département français d'Ille-et-Vilaine en région Bretagne. 
-Au total, la ville compte 868 hectares d’espaces verts entretenus (dont 50 % de parcs, bases de loisirs, terrains de sports), soit 17 % de la superficie de la ville et 40 mètres carrés d'espace vert par habitant[1]. En moins de quarante ans, la surface du patrimoine vert public de la ville de Rennes a été multipliée par dix[2]. De nouveaux espaces verts sont aussi progressivement aménagés le long des rives de l’Ille et de la Vilaine.
+Au total, la ville compte 868 hectares d’espaces verts entretenus (dont 50 % de parcs, bases de loisirs, terrains de sports), soit 17 % de la superficie de la ville et 40 mètres carrés d'espace vert par habitant. En moins de quarante ans, la surface du patrimoine vert public de la ville de Rennes a été multipliée par dix. De nouveaux espaces verts sont aussi progressivement aménagés le long des rives de l’Ille et de la Vilaine.
 Rennes a été la première grande ville qui a mis en place, dès 1981, la « gestion différenciée des espaces verts ». Les parcs et jardins de la ville ont ainsi été classés en cinq catégories, du plus horticole au plus naturel. À chaque type d'espace correspond un protocole d'entretien particulier. Du parc très maîtrisé au jardin sauvage, les espaces verts rennais offrent aujourd'hui une palette d'ambiances très variées.
-La ville dispose aussi depuis 2014 de plus de 1 000 jardins familiaux à la Bintinais, Cleunay, Villejean, prairies Saint-Martin, la Prévalaye, les Gayeulles ou encore Beauregard[3].
+La ville dispose aussi depuis 2014 de plus de 1 000 jardins familiaux à la Bintinais, Cleunay, Villejean, prairies Saint-Martin, la Prévalaye, les Gayeulles ou encore Beauregard.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Parcs de Rennes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La ville compte de nombreux parcs (liste non exhaustive) :
 </t>
@@ -545,7 +559,9 @@
           <t>Autres espaces verts</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les étangs d'Apigné (100 hectares)
 La base de loisir de la Prévalaye (50 hectares)
